--- a/outcome/appendix/data/Fig.1 data.xlsx
+++ b/outcome/appendix/data/Fig.1 data.xlsx
@@ -40,25 +40,25 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">27,255,346</t>
+    <t xml:space="preserve">27,255,336</t>
   </si>
   <si>
     <t xml:space="preserve">Infectious diarrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">16,206,609</t>
+    <t xml:space="preserve">16,205,607</t>
   </si>
   <si>
     <t xml:space="preserve">Dysentery</t>
   </si>
   <si>
-    <t xml:space="preserve">2,376,937</t>
+    <t xml:space="preserve">2,376,947</t>
   </si>
   <si>
     <t xml:space="preserve">AHC</t>
   </si>
   <si>
-    <t xml:space="preserve">939,596</t>
+    <t xml:space="preserve">939,592</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis E</t>
@@ -73,13 +73,13 @@
     <t xml:space="preserve">Hepatitis A</t>
   </si>
   <si>
-    <t xml:space="preserve">397,864</t>
+    <t xml:space="preserve">400,491</t>
   </si>
   <si>
     <t xml:space="preserve">Enteric fever</t>
   </si>
   <si>
-    <t xml:space="preserve">184,810</t>
+    <t xml:space="preserve">184,813</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis B</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Syphilis</t>
   </si>
   <si>
-    <t xml:space="preserve">7,423,778</t>
+    <t xml:space="preserve">7,424,078</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis C</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Gonorrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">1,811,902</t>
+    <t xml:space="preserve">1,811,908</t>
   </si>
   <si>
     <t xml:space="preserve">AIDS</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Zoonotic infectious diseases</t>
   </si>
   <si>
-    <t xml:space="preserve">801,582</t>
+    <t xml:space="preserve">804,912</t>
   </si>
   <si>
     <t xml:space="preserve">HFRS</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Echinococcosis</t>
   </si>
   <si>
-    <t xml:space="preserve">66,089</t>
+    <t xml:space="preserve">66,078</t>
   </si>
   <si>
     <t xml:space="preserve">Typhus</t>
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>27255346</v>
+        <v>27255336</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -596,7 +596,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>16206609</v>
+        <v>16205607</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2376937</v>
+        <v>2376947</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>939596</v>
+        <v>939592</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -664,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>397864</v>
+        <v>400491</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -681,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>184810</v>
+        <v>184813</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -715,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>7423778</v>
+        <v>7424078</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -749,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>1811902</v>
+        <v>1811908</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -868,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>801582</v>
+        <v>804912</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
@@ -936,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>66089</v>
+        <v>66078</v>
       </c>
       <c r="E23" t="s">
         <v>54</v>
@@ -3479,7 +3479,7 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>235118</v>
+        <v>237745</v>
       </c>
     </row>
     <row r="179">
@@ -4487,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>158543</v>
+        <v>158550</v>
       </c>
     </row>
     <row r="251">
@@ -4501,7 +4501,7 @@
         <v>23</v>
       </c>
       <c r="D251" t="n">
-        <v>180532</v>
+        <v>180838</v>
       </c>
     </row>
     <row r="252">
@@ -4529,7 +4529,7 @@
         <v>45</v>
       </c>
       <c r="D253" t="n">
-        <v>2835</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="254">
@@ -4767,7 +4767,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>301822</v>
+        <v>300812</v>
       </c>
     </row>
     <row r="271">
@@ -4809,7 +4809,7 @@
         <v>45</v>
       </c>
       <c r="D273" t="n">
-        <v>7451</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="274">
@@ -14259,7 +14259,7 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>0.439893056732692</v>
+        <v>0.442632503965624</v>
       </c>
     </row>
     <row r="179">
@@ -14273,7 +14273,7 @@
         <v>23</v>
       </c>
       <c r="D179" t="n">
-        <v>0.306101715844479</v>
+        <v>0.304604591931724</v>
       </c>
     </row>
     <row r="180">
@@ -14287,7 +14287,7 @@
         <v>34</v>
       </c>
       <c r="D180" t="n">
-        <v>0.246083642507142</v>
+        <v>0.244880063152094</v>
       </c>
     </row>
     <row r="181">
@@ -14301,7 +14301,7 @@
         <v>45</v>
       </c>
       <c r="D181" t="n">
-        <v>0.00792158491568582</v>
+        <v>0.00788284095055817</v>
       </c>
     </row>
     <row r="182">
@@ -15267,7 +15267,7 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>0.31973661655121</v>
+        <v>0.317418688363117</v>
       </c>
     </row>
     <row r="251">
@@ -15281,7 +15281,7 @@
         <v>23</v>
       </c>
       <c r="D251" t="n">
-        <v>0.364082241784393</v>
+        <v>0.362039487645596</v>
       </c>
     </row>
     <row r="252">
@@ -15295,7 +15295,7 @@
         <v>34</v>
       </c>
       <c r="D252" t="n">
-        <v>0.310463744441419</v>
+        <v>0.308199432229959</v>
       </c>
     </row>
     <row r="253">
@@ -15309,7 +15309,7 @@
         <v>45</v>
       </c>
       <c r="D253" t="n">
-        <v>0.00571739722297849</v>
+        <v>0.0123423917613284</v>
       </c>
     </row>
     <row r="254">
@@ -15547,7 +15547,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>0.497557726831375</v>
+        <v>0.496728788314129</v>
       </c>
     </row>
     <row r="271">
@@ -15561,7 +15561,7 @@
         <v>23</v>
       </c>
       <c r="D271" t="n">
-        <v>0.277805894096178</v>
+        <v>0.278274266578157</v>
       </c>
     </row>
     <row r="272">
@@ -15575,7 +15575,7 @@
         <v>34</v>
       </c>
       <c r="D272" t="n">
-        <v>0.212353302879789</v>
+        <v>0.212711324238011</v>
       </c>
     </row>
     <row r="273">
@@ -15589,7 +15589,7 @@
         <v>45</v>
       </c>
       <c r="D273" t="n">
-        <v>0.0122830761926585</v>
+        <v>0.0122856208697031</v>
       </c>
     </row>
     <row r="274">
